--- a/data/trans_dic/DCD-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Provincia-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,22</t>
+          <t>3,22; 9,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,87</t>
+          <t>7,17; 13,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,88</t>
+          <t>16,63; 26,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 20,71</t>
+          <t>14,02; 20,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,95</t>
+          <t>10,79; 16,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 16,07</t>
+          <t>11,19; 15,81</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,37</t>
+          <t>3,67; 8,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,54</t>
+          <t>2,75; 6,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>8,83; 15,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,81</t>
+          <t>11,55; 18,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,8</t>
+          <t>5,4; 9,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 30,85</t>
+          <t>23,73; 30,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,23</t>
+          <t>8,16; 12,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,34</t>
+          <t>4,42; 7,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,67</t>
+          <t>17,5; 22,35</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,56</t>
+          <t>3,35; 8,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,0</t>
+          <t>3,23; 8,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,53</t>
+          <t>11,92; 19,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,64</t>
+          <t>9,19; 16,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,09</t>
+          <t>9,14; 17,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,64; 30,41</t>
+          <t>22,2; 29,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,59</t>
+          <t>7,1; 11,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,36</t>
+          <t>6,76; 11,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,59; 23,71</t>
+          <t>18,83; 24,07</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,85</t>
+          <t>4,25; 8,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>6,23; 12,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,76</t>
+          <t>11,64; 19,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 22,28</t>
+          <t>15,77; 22,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 21,85</t>
+          <t>14,16; 22,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,53; 30,18</t>
+          <t>21,46; 30,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,52</t>
+          <t>10,62; 14,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 16,14</t>
+          <t>11,01; 16,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 24,06</t>
+          <t>18,28; 24,52</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,23</t>
+          <t>9,44; 19,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,53</t>
+          <t>4,96; 13,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,35</t>
+          <t>6,93; 14,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,73; 39,95</t>
+          <t>27,01; 39,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 22,63</t>
+          <t>12,58; 21,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 21,94</t>
+          <t>13,12; 22,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 27,9</t>
+          <t>19,72; 27,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 16,08</t>
+          <t>9,48; 15,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,8</t>
+          <t>11,51; 17,57</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,75</t>
+          <t>7,67; 15,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,13</t>
+          <t>4,54; 11,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,32; 22,98</t>
+          <t>15,36; 23,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,02; 21,35</t>
+          <t>11,66; 21,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,34</t>
+          <t>9,78; 18,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,9</t>
+          <t>28,0; 37,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,71</t>
+          <t>10,87; 17,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,41</t>
+          <t>7,76; 13,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,65; 28,97</t>
+          <t>23,19; 29,04</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,29</t>
+          <t>4,34; 7,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,26</t>
+          <t>5,7; 10,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,85; 20,01</t>
+          <t>13,84; 20,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,6</t>
+          <t>12,79; 18,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,9</t>
+          <t>9,89; 15,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 37,51</t>
+          <t>18,19; 37,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,78</t>
+          <t>8,97; 12,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 11,97</t>
+          <t>8,55; 12,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,83; 27,93</t>
+          <t>19,16; 28,01</t>
         </is>
       </c>
     </row>
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,08</t>
+          <t>4,02; 7,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,5</t>
+          <t>5,04; 8,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,9</t>
+          <t>7,78; 12,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1729,17 +1729,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,6</t>
+          <t>10,7; 15,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,7</t>
+          <t>9,09; 13,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,8; 25,33</t>
+          <t>19,69; 25,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 10,9</t>
+          <t>7,94; 10,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,39</t>
+          <t>7,64; 10,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,13; 18,14</t>
+          <t>14,02; 17,84</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,85; 7,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,86; 7,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>12,03; 14,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,14; 17,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,81; 14,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
+          <t>23,3; 27,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,82; 12,39</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,24; 10,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,79</t>
+          <t>18,62; 20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 9,36</t>
+          <t>3,47; 9,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 26,97</t>
+          <t>16,56; 26,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,83</t>
+          <t>10,79; 17,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,4</t>
+          <t>3,72; 8,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,26</t>
+          <t>2,81; 6,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 18,11</t>
+          <t>11,61; 18,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,89</t>
+          <t>5,28; 10,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,14</t>
+          <t>8,27; 12,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,55</t>
+          <t>4,29; 7,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,66</t>
+          <t>3,44; 8,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,23</t>
+          <t>3,24; 7,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 16,67</t>
+          <t>9,55; 17,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,21</t>
+          <t>9,05; 16,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 11,78</t>
+          <t>6,9; 11,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,47</t>
+          <t>6,91; 11,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,15</t>
+          <t>4,18; 7,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,03</t>
+          <t>6,26; 12,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,77; 22,31</t>
+          <t>16,08; 22,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 22,1</t>
+          <t>13,86; 22,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 14,42</t>
+          <t>10,71; 14,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 16,03</t>
+          <t>11,03; 16,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 19,44</t>
+          <t>8,98; 19,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,21</t>
+          <t>4,82; 13,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 39,58</t>
+          <t>27,05; 40,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,69</t>
+          <t>12,24; 21,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,72; 27,87</t>
+          <t>19,69; 28,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,83</t>
+          <t>9,53; 15,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,34</t>
+          <t>7,46; 15,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,03</t>
+          <t>4,24; 11,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,66; 21,33</t>
+          <t>12,28; 21,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 18,52</t>
+          <t>9,63; 18,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,05</t>
+          <t>10,93; 16,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,23</t>
+          <t>8,02; 13,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,96</t>
+          <t>4,46; 8,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,27</t>
+          <t>5,82; 10,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,86</t>
+          <t>12,89; 18,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,17</t>
+          <t>9,92; 15,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,68</t>
+          <t>9,25; 12,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,1</t>
+          <t>8,54; 12,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,15</t>
+          <t>3,92; 7,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,54</t>
+          <t>4,94; 8,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,82</t>
+          <t>10,78; 15,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,94; 10,89</t>
+          <t>7,92; 10,78</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,55</t>
+          <t>7,43; 10,62</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,59</t>
+          <t>5,77; 7,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,71</t>
+          <t>5,91; 7,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,66</t>
+          <t>15,02; 17,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,22</t>
+          <t>11,92; 14,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,82; 12,39</t>
+          <t>10,76; 12,36</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,71</t>
+          <t>9,24; 10,68</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/DCD-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,37</t>
+          <t>3,43; 9,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,89</t>
+          <t>6,79; 13,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,56; 26,65</t>
+          <t>16,86; 26,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,38</t>
+          <t>14,15; 20,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 17,06</t>
+          <t>10,86; 16,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,81</t>
+          <t>11,34; 16,07</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,3</t>
+          <t>3,95; 8,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,49</t>
+          <t>2,77; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,66</t>
+          <t>9,15; 15,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 18,38</t>
+          <t>11,38; 17,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,17</t>
+          <t>5,17; 9,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,73; 30,73</t>
+          <t>24,18; 30,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,22</t>
+          <t>8,43; 12,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,42</t>
+          <t>4,51; 7,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,5; 22,35</t>
+          <t>17,38; 22,67</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,78</t>
+          <t>3,39; 8,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,83</t>
+          <t>3,09; 8,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 19,53</t>
+          <t>11,87; 19,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 17,15</t>
+          <t>8,99; 16,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,85</t>
+          <t>8,99; 17,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,2; 29,87</t>
+          <t>22,64; 30,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,61</t>
+          <t>7,12; 11,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,39</t>
+          <t>6,85; 11,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 24,07</t>
+          <t>18,59; 23,71</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,99</t>
+          <t>4,1; 7,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,44</t>
+          <t>6,07; 12,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 19,46</t>
+          <t>11,45; 19,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 22,11</t>
+          <t>15,98; 22,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 22,18</t>
+          <t>13,86; 21,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 30,87</t>
+          <t>21,53; 30,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,3</t>
+          <t>10,71; 14,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,25</t>
+          <t>10,92; 16,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 24,52</t>
+          <t>18,16; 24,06</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,98; 19,54</t>
+          <t>9,31; 19,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 13,15</t>
+          <t>4,83; 12,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,45</t>
+          <t>6,95; 14,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,05; 40,58</t>
+          <t>26,73; 39,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 21,97</t>
+          <t>12,33; 22,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,12; 22,76</t>
+          <t>11,87; 21,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,69; 28,08</t>
+          <t>19,49; 27,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,73</t>
+          <t>9,61; 16,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,57</t>
+          <t>11,6; 17,8</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,54</t>
+          <t>7,17; 14,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,38</t>
+          <t>4,44; 11,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,36; 23,81</t>
+          <t>15,32; 22,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,43</t>
+          <t>12,02; 21,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,94</t>
+          <t>9,72; 18,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,0; 37,44</t>
+          <t>28,53; 37,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,92</t>
+          <t>10,59; 16,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 13,54</t>
+          <t>8,15; 13,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,19; 29,04</t>
+          <t>22,65; 28,97</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,28</t>
+          <t>4,49; 8,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,37</t>
+          <t>5,84; 10,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,84; 20,2</t>
+          <t>13,85; 20,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,69</t>
+          <t>12,84; 18,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,0</t>
+          <t>9,83; 14,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,19; 37,3</t>
+          <t>19,27; 37,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 12,73</t>
+          <t>9,2; 12,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 12,27</t>
+          <t>8,69; 11,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,16; 28,01</t>
+          <t>18,83; 27,93</t>
         </is>
       </c>
     </row>
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,22</t>
+          <t>3,85; 7,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,64</t>
+          <t>4,91; 8,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,78; 12,39</t>
+          <t>7,71; 11,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1729,17 +1729,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,52</t>
+          <t>10,9; 15,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,7</t>
+          <t>9,12; 13,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,69; 25,21</t>
+          <t>19,8; 25,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,92; 10,78</t>
+          <t>7,93; 10,9</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,62</t>
+          <t>7,57; 10,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,02; 17,84</t>
+          <t>14,13; 18,14</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,54</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,69</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,03; 14,44</t>
+          <t>12,13; 14,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,02; 17,63</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,36</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,3; 27,34</t>
+          <t>23,39; 27,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,76; 12,36</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,68</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,89</t>
+          <t>18,57; 20,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Provincia-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +542,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>13,6%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>13,6%</t>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,91; 6,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,22</t>
+          <t>6,38; 13,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,87</t>
+          <t>13,79; 23,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>16,86; 26,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,73; 20,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,88</t>
+          <t>8,32; 13,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 20,71</t>
+          <t>10,86; 16,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 16,95</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>11,34; 16,07</t>
+          <t>10,78; 15,39</t>
         </is>
       </c>
     </row>
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,8%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,84%</t>
+          <t>19,37%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>3,95; 8,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,37</t>
+          <t>2,77; 6,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,54</t>
+          <t>8,84; 15,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>11,38; 17,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,17; 9,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,81</t>
+          <t>24,15; 30,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,8</t>
+          <t>8,43; 12,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,18; 30,85</t>
+          <t>4,51; 7,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>8,43; 12,23</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 7,34</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>17,38; 22,67</t>
+          <t>16,91; 22,07</t>
         </is>
       </c>
     </row>
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,18%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>21,17%</t>
+          <t>20,77%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>3,39; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,56</t>
+          <t>3,09; 8,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,0</t>
+          <t>11,53; 19,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,53</t>
+          <t>8,99; 16,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>8,99; 17,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,64</t>
+          <t>22,42; 30,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,09</t>
+          <t>7,12; 11,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,64; 30,41</t>
+          <t>6,85; 11,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 11,59</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 11,36</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>18,59; 23,71</t>
+          <t>18,21; 23,28</t>
         </is>
       </c>
     </row>
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>12,42%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>21,1%</t>
+          <t>18,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,16; 10,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,85</t>
+          <t>6,07; 12,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>11,04; 19,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,76</t>
+          <t>15,68; 24,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>13,86; 21,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 22,28</t>
+          <t>11,94; 27,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 21,85</t>
+          <t>11,15; 16,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,53; 30,18</t>
+          <t>10,92; 16,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>10,71; 14,52</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>10,92; 16,14</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>18,16; 24,06</t>
+          <t>13,77; 22,13</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>23,51%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>14,68%</t>
+          <t>13,89%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>9,31; 19,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,23</t>
+          <t>4,83; 12,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,53</t>
+          <t>6,91; 14,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,35</t>
+          <t>26,73; 39,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>12,33; 22,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,73; 39,95</t>
+          <t>8,44; 21,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 22,63</t>
+          <t>19,49; 27,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 21,94</t>
+          <t>9,61; 16,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 27,9</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>9,61; 16,08</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>11,6; 17,8</t>
+          <t>9,4; 17,04</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>13,71%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,37%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>25,93%</t>
+          <t>25,59%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>7,17; 14,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,75</t>
+          <t>4,44; 11,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,13</t>
+          <t>15,12; 22,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,32; 22,98</t>
+          <t>12,02; 21,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>9,72; 18,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,02; 21,35</t>
+          <t>28,41; 37,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,34</t>
+          <t>10,59; 16,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,9</t>
+          <t>8,15; 13,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>10,59; 16,71</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 13,41</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>22,65; 28,97</t>
+          <t>22,35; 28,66</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>10,2%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>24,79%</t>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,49; 8,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,29</t>
+          <t>5,84; 10,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,26</t>
+          <t>13,25; 19,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,85; 20,01</t>
+          <t>12,84; 18,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>9,83; 14,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,6</t>
+          <t>12,67; 37,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,9</t>
+          <t>9,2; 12,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 37,51</t>
+          <t>8,69; 11,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>9,2; 12,78</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>8,69; 11,97</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>18,83; 27,93</t>
+          <t>13,88; 26,98</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>16,09%</t>
+          <t>14,16%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,85; 7,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,08</t>
+          <t>4,91; 8,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,5</t>
+          <t>3,33; 11,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,9</t>
+          <t>10,9; 15,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>9,12; 13,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,6</t>
+          <t>19,95; 25,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,7</t>
+          <t>7,93; 10,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,8; 25,33</t>
+          <t>7,57; 10,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>7,93; 10,9</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>7,57; 10,39</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>14,13; 18,14</t>
+          <t>8,38; 17,28</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>11,57%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>19,86%</t>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>9,66; 13,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>20,34; 26,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 12,47</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 10,71</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>18,57; 20,79</t>
+          <t>15,99; 19,89</t>
         </is>
       </c>
     </row>
@@ -1912,17 +1618,17 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/DCD-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,47</t>
+          <t>1,83; 6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,22</t>
+          <t>3,55; 9,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,33</t>
+          <t>6,66; 12,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 23,84</t>
+          <t>13,86; 23,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,88</t>
+          <t>16,76; 27,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,73; 20,3</t>
+          <t>13,78; 20,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 13,8</t>
+          <t>8,43; 14,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,95</t>
+          <t>10,85; 16,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,39</t>
+          <t>10,59; 15,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,37</t>
+          <t>3,91; 8,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,54</t>
+          <t>2,69; 6,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,84; 15,31</t>
+          <t>8,79; 15,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,81</t>
+          <t>11,62; 17,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,8</t>
+          <t>5,25; 10,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,15; 30,82</t>
+          <t>23,84; 30,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,23</t>
+          <t>8,32; 12,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,34</t>
+          <t>4,46; 7,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,07</t>
+          <t>16,92; 22,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,56</t>
+          <t>3,18; 9,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,0</t>
+          <t>3,11; 8,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,53; 19,04</t>
+          <t>11,76; 18,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,64</t>
+          <t>9,08; 16,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,09</t>
+          <t>9,11; 16,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,42; 30,14</t>
+          <t>22,56; 30,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,59</t>
+          <t>6,95; 11,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,36</t>
+          <t>6,94; 11,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,21; 23,28</t>
+          <t>18,29; 23,53</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,76</t>
+          <t>5,07; 11,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>6,35; 12,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 19,33</t>
+          <t>10,79; 18,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,11</t>
+          <t>15,38; 23,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 21,85</t>
+          <t>14,14; 22,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 27,13</t>
+          <t>12,71; 27,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,24</t>
+          <t>11,21; 16,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 16,14</t>
+          <t>10,9; 16,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 22,13</t>
+          <t>14,34; 22,18</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,23</t>
+          <t>9,15; 19,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,53</t>
+          <t>5,19; 12,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 14,32</t>
+          <t>7,18; 14,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,73; 39,95</t>
+          <t>27,51; 40,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,33; 22,63</t>
+          <t>12,28; 22,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 21,54</t>
+          <t>7,74; 21,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 27,9</t>
+          <t>19,71; 28,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 16,08</t>
+          <t>9,67; 16,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 17,04</t>
+          <t>9,19; 16,69</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,75</t>
+          <t>7,66; 15,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,13</t>
+          <t>4,45; 11,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,12; 22,66</t>
+          <t>14,9; 23,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,02; 21,35</t>
+          <t>12,06; 21,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,34</t>
+          <t>9,68; 18,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,41; 37,78</t>
+          <t>28,65; 37,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,71</t>
+          <t>11,15; 16,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,41</t>
+          <t>7,97; 13,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,35; 28,66</t>
+          <t>22,51; 28,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,29</t>
+          <t>4,48; 8,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,26</t>
+          <t>5,75; 10,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,25; 19,42</t>
+          <t>13,22; 19,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,6</t>
+          <t>12,82; 18,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,9</t>
+          <t>9,82; 15,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,67; 37,12</t>
+          <t>14,02; 36,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,78</t>
+          <t>9,24; 12,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 11,97</t>
+          <t>8,67; 11,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,88; 26,98</t>
+          <t>13,45; 26,78</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,08</t>
+          <t>3,87; 7,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,5</t>
+          <t>5,11; 8,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,33; 11,23</t>
+          <t>3,39; 11,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,6</t>
+          <t>10,65; 15,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,7</t>
+          <t>9,08; 13,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,95; 25,38</t>
+          <t>19,87; 25,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 10,9</t>
+          <t>7,97; 10,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,39</t>
+          <t>7,67; 10,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,38; 17,28</t>
+          <t>8,9; 17,2</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,82; 7,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,87; 7,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,77</t>
+          <t>9,76; 13,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,09; 17,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,91; 14,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,34; 26,46</t>
+          <t>19,84; 26,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,85; 12,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,21; 10,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,99; 19,89</t>
+          <t>16,09; 19,92</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10910</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17203</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29055</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52392</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>62030</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48572</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63303</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>79233</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77627</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5392; 18469</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10434; 27906</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20750; 40346</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39803; 68832</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48392; 78103</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39925; 58939</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>49085; 81537</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>63185; 94956</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63629; 92279</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29112</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21104</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59954</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76234</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>38404</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>140210</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>105346</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59509</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>200165</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19776; 43466</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13529; 30825</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45576; 81651</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60840; 93579</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27448; 52426</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>122785; 156973</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>85655; 125713</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45792; 75986</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>174825; 227616</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18082</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16448</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47652</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42948</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42408</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>90498</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61030</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>58856</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>138149</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10300; 29611</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9900; 25502</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37156; 60002</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30959; 57191</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30626; 56010</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>78757; 105025</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46216; 76893</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45466; 75443</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>121637; 156520</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28291</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33106</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>45715</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>75437</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>68610</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>102073</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103727</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>101716</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>147788</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18963; 41942</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23482; 47220</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>33740; 59130</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>59839; 91154</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54758; 86041</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60440; 132243</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>85498; 123561</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82577; 121274</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>113065; 174810</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>28997</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17437</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18197</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>72612</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36519</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42565</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>101610</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>53956</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>60762</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19454; 40894</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10966; 27256</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12830; 25551</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>60408; 88352</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26846; 48526</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20042; 56369</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>85200; 121786</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>41560; 69332</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>40205; 73036</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30139</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18839</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>50161</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>45813</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>36759</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84634</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>75952</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>55598</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>134795</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>21000; 41526</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11708; 29499</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>40176; 62269</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>33784; 59264</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>26433; 49468</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>73642; 97307</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>61773; 93994</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>42732; 73058</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>118580; 151647</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40387</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>52261</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>100908</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>107590</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>85171</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>230688</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>147977</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>137432</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>331596</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>29706; 54362</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>37741; 68312</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>82512; 119317</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>88923; 128253</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>67912; 105628</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>119074; 311461</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>125286; 170903</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>116872; 161664</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>198142; 394568</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>42352</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>51628</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>72402</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>107208</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>92603</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>160713</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>149560</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>144231</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>233115</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>30163; 55750</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>39809; 68223</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>31474; 104097</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>87712; 127727</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>75044; 112838</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>142608; 180478</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>127798; 172899</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>123121; 171837</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>146512; 283195</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2072</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>228270</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>228026</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>424045</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>580234</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>462504</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>899952</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>808504</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>690530</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1323997</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>199449; 260328</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>199191; 260919</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>337616; 477084</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>537033; 626371</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>422039; 505227</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>736624; 976182</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>757863; 861259</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>639330; 743382</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1154101; 1428993</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>